--- a/artifacts/ZiRA Proces sorted.xlsx
+++ b/artifacts/ZiRA Proces sorted.xlsx
@@ -969,6 +969,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -991,14 +992,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1035,7 +1043,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1076,12 +1084,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1107,10 +1119,10 @@
   </sheetPr>
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H108" activeCellId="0" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3827,14 +3839,14 @@
       <c r="D108" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="10" t="s">
         <v>228</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>205</v>
       </c>
       <c r="G108" s="6"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="9" t="s">
         <v>229</v>
       </c>
@@ -3933,14 +3945,14 @@
       <c r="D112" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="10" t="s">
         <v>226</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G112" s="6"/>
-      <c r="H112" s="8" t="n">
+      <c r="H112" s="11" t="n">
         <v>4</v>
       </c>
       <c r="I112" s="9" t="s">
@@ -3960,14 +3972,14 @@
       <c r="D113" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="10" t="s">
         <v>241</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>242</v>
       </c>
       <c r="G113" s="6"/>
-      <c r="H113" s="8" t="n">
+      <c r="H113" s="11" t="n">
         <v>5</v>
       </c>
       <c r="I113" s="9" t="s">
@@ -4519,10 +4531,10 @@
       <c r="E135" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="H135" s="11" t="n">
+      <c r="H135" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -4545,10 +4557,10 @@
       <c r="E136" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="H136" s="11" t="n">
+      <c r="H136" s="8" t="n">
         <v>2</v>
       </c>
       <c r="I136" s="1" t="s">
